--- a/data/metadata/mapping-superficie-util-agrupada.xlsx
+++ b/data/metadata/mapping-superficie-util-agrupada.xlsx
@@ -11,7 +11,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="32" uniqueCount="24">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="16">
   <si>
     <t>46-60 metros</t>
   </si>
@@ -59,30 +59,6 @@
   </si>
   <si>
     <t>http://opendata.aragon.es/kos/iaest/superficie-util-agrupada/61-75-metros</t>
-  </si>
-  <si>
-    <t>106 - 120</t>
-  </si>
-  <si>
-    <t>061 - 075</t>
-  </si>
-  <si>
-    <t>121 - 150</t>
-  </si>
-  <si>
-    <t>151 o más</t>
-  </si>
-  <si>
-    <t>091 - 105</t>
-  </si>
-  <si>
-    <t>045 o menos</t>
-  </si>
-  <si>
-    <t>046 - 060</t>
-  </si>
-  <si>
-    <t>076 - 090</t>
   </si>
 </sst>
 </file>
@@ -110,20 +86,25 @@
     </fill>
   </fills>
   <borders count="1">
-    <border/>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" applyAlignment="1" applyFont="1"/>
   </cellStyleXfs>
   <cellXfs count="3">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0" shrinkToFit="0" vertical="bottom" wrapText="0"/>
+      <alignment/>
     </xf>
     <xf borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
+      <alignment/>
     </xf>
     <xf borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0" applyAlignment="1" applyFont="1">
-      <alignment readingOrder="0"/>
+      <alignment/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -133,15 +114,12 @@
 </styleSheet>
 </file>
 
-<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
-<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:cx="http://schemas.microsoft.com/office/drawing/2014/chartex" xmlns:cx1="http://schemas.microsoft.com/office/drawing/2015/9/8/chartex" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram"/>
+<file path=xl/drawings/worksheetdrawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:dgm="http://schemas.openxmlformats.org/drawingml/2006/diagram"/>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mx="http://schemas.microsoft.com/office/mac/excel/2008/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:mv="urn:schemas-microsoft-com:mac:vml" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="0" summaryRight="0"/>
-  </sheetPr>
   <sheetViews>
     <sheetView workbookViewId="0"/>
   </sheetViews>
@@ -209,70 +187,6 @@
       </c>
       <c r="B8" s="2" t="s">
         <v>15</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="1" t="s">
-        <v>16</v>
-      </c>
-      <c r="B9" s="2" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="1" t="s">
-        <v>17</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="1" t="s">
-        <v>18</v>
-      </c>
-      <c r="B11" s="2" t="s">
-        <v>9</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B12" s="2" t="s">
-        <v>11</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="1" t="s">
-        <v>20</v>
-      </c>
-      <c r="B13" s="2" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" s="1" t="s">
-        <v>21</v>
-      </c>
-      <c r="B14" s="2" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" s="1" t="s">
-        <v>22</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>5</v>
       </c>
     </row>
   </sheetData>
@@ -285,15 +199,7 @@
     <hyperlink r:id="rId6" ref="B6"/>
     <hyperlink r:id="rId7" ref="B7"/>
     <hyperlink r:id="rId8" ref="B8"/>
-    <hyperlink r:id="rId9" ref="B9"/>
-    <hyperlink r:id="rId10" ref="B10"/>
-    <hyperlink r:id="rId11" ref="B11"/>
-    <hyperlink r:id="rId12" ref="B12"/>
-    <hyperlink r:id="rId13" ref="B13"/>
-    <hyperlink r:id="rId14" ref="B14"/>
-    <hyperlink r:id="rId15" ref="B15"/>
-    <hyperlink r:id="rId16" ref="B16"/>
   </hyperlinks>
-  <drawing r:id="rId17"/>
+  <drawing r:id="rId9"/>
 </worksheet>
 </file>